--- a/stimuli/output_videos/08/order_matrix_08_B_VR.xlsx
+++ b/stimuli/output_videos/08/order_matrix_08_B_VR.xlsx
@@ -507,11 +507,11 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text.mp4</t>
+          <t>./instructions_videos/block_6_text.mp4</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,16 +550,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>inverse</t>
+          <t>direct</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/4.mp4</t>
+          <t>../stimuli/exp_videos/VR/11.mp4</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -589,15 +589,15 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -623,15 +623,15 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -657,15 +657,15 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text_reminder.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -685,35 +685,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/7.mp4</t>
+          <t>./instructions_videos/block_6_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -733,21 +719,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>../stimuli/exp_videos/VR/10.mp4</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -773,15 +773,15 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -807,15 +807,15 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text_reminder.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -835,35 +835,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/9.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -889,15 +875,15 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./instructions_videos/block_6_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -917,21 +903,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>../stimuli/exp_videos/VR/1.mp4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -957,15 +957,15 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text_reminder.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -985,35 +985,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inverse </t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/8.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1039,15 +1025,15 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -1073,15 +1059,15 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/block_6_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1101,19 +1087,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>./instructions_videos/luminance_instructions_inverse.mp4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>../stimuli/exp_videos/VR/5.mp4</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>luminance_instructions</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1133,29 +1135,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_3.mp4</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>luminance</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1175,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_6_text.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1189,7 +1183,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1209,27 +1203,13 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>6</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/11.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1237,7 +1217,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -1263,15 +1243,13 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
+          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>luminance_instructions</t>
         </is>
       </c>
     </row>
@@ -1291,21 +1269,29 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>luminance</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>6</v>
-      </c>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_7.mp4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>luminance</t>
         </is>
       </c>
     </row>
@@ -1331,15 +1317,15 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/block_8_text.mp4</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1359,21 +1345,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_6_text_reminder.mp4</t>
+          <t>../stimuli/exp_videos/VR/2.mp4</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1393,35 +1393,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/5.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1447,15 +1433,15 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1481,15 +1467,15 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -1515,15 +1501,15 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/block_8_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1543,21 +1529,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_6_text_reminder.mp4</t>
+          <t>../stimuli/exp_videos/VR/3.mp4</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1577,35 +1577,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>8</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>../stimuli/exp_videos/VR/1.mp4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1631,15 +1617,15 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1665,15 +1651,15 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -1699,15 +1685,15 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/block_8_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1727,21 +1713,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_6_text_reminder.mp4</t>
+          <t>../stimuli/exp_videos/VR/12.mp4</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1761,35 +1761,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>9</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/10.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1815,15 +1801,15 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1849,15 +1835,15 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -1883,15 +1869,13 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
+          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>luminance_instructions</t>
         </is>
       </c>
     </row>
@@ -1911,19 +1895,29 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>9</v>
+      </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>luminance</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_12.mp4</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>luminance_instructions</t>
+          <t>luminance</t>
         </is>
       </c>
     </row>
@@ -1943,29 +1937,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>10</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_7.mp4</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>./instructions_videos/block_7_text.mp4</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>luminance</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1985,21 +1971,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_8_text.mp4</t>
+          <t>../stimuli/exp_videos/VR/6.mp4</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -2019,35 +2019,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>11</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>arousal</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/2.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -2073,15 +2059,15 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -2107,15 +2093,15 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./instructions_videos/block_7_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -2135,21 +2121,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>11</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>../stimuli/exp_videos/VR/14.mp4</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -2175,15 +2175,15 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_8_text_reminder.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -2203,35 +2203,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>12</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>arousal</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/3.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -2257,15 +2243,15 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/block_7_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -2285,21 +2271,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>12</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>../stimuli/exp_videos/VR/13.mp4</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -2325,15 +2325,15 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -2359,15 +2359,15 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_8_text_reminder.mp4</t>
+          <t>./black_screen_5_sec.mp4</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -2387,35 +2387,19 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>13</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>arousal</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/12.mp4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
+          <t>./instructions_videos/luminance_instructions_inverse.mp4</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>luminance_instructions</t>
         </is>
       </c>
     </row>
@@ -2435,21 +2419,29 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>13</v>
+      </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>luminance</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_9.mp4</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>luminance</t>
         </is>
       </c>
     </row>
@@ -2475,15 +2467,15 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./instructions_videos/block_5_text.mp4</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -2503,21 +2495,35 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>14</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>../stimuli/exp_videos/VR/9.mp4</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -2543,13 +2549,15 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>luminance_instructions</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -2569,29 +2577,21 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>14</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_12.mp4</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>./black_screen_5_sec.mp4</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>5</v>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>luminance</t>
+          <t>black_screen_5_seconds</t>
         </is>
       </c>
     </row>
@@ -2617,11 +2617,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_7_text.mp4</t>
+          <t>./instructions_videos/block_5_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2650,12 +2650,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2665,11 +2665,11 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/13.mp4</t>
+          <t>../stimuli/exp_videos/VR/7.mp4</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2767,11 +2767,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_7_text_reminder.mp4</t>
+          <t>./instructions_videos/block_5_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2815,11 +2815,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/14.mp4</t>
+          <t>../stimuli/exp_videos/VR/4.mp4</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2917,11 +2917,11 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_7_text_reminder.mp4</t>
+          <t>./instructions_videos/block_5_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2950,26 +2950,26 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>inverse</t>
+          <t xml:space="preserve">inverse </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/6.mp4</t>
+          <t>../stimuli/exp_videos/VR/8.mp4</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_9.mp4</t>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_3.mp4</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
